--- a/ig/core/StructureDefinition-medcom-core-practitionerrole.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="313">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -381,7 +381,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -394,6 +394,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>PractitionerRole.contained</t>
@@ -419,34 +522,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>PractitionerRole.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>PractitionerRole.modifierExtension</t>
@@ -618,39 +700,7 @@
     <t>PractitionerRole.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PractitionerRole.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>PractitionerRole.code.coding</t>
@@ -838,9 +888,6 @@
   </si>
   <si>
     <t>Indicates which days of the week are available between the start and end Times.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The days of the week.</t>
@@ -1261,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1270,17 +1317,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.65625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.87109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1289,26 +1336,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.35546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.0078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="37.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.45703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="84.140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="75.796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="186.2890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="166.7265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1564,7 +1611,7 @@
         <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>76</v>
@@ -2018,7 +2065,7 @@
         <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>76</v>
@@ -2122,14 +2169,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -2141,17 +2188,15 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -2200,13 +2245,13 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
@@ -2218,7 +2263,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2229,14 +2274,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2255,16 +2300,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2302,19 +2347,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2326,13 +2371,13 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2343,46 +2388,42 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>142</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2406,13 +2447,13 @@
         <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>76</v>
@@ -2430,25 +2471,25 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2459,10 +2500,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2470,33 +2511,33 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2544,50 +2585,50 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2596,29 +2637,25 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2662,50 +2699,50 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2714,21 +2751,21 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2776,71 +2813,75 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2888,25 +2929,25 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -2917,10 +2958,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2931,10 +2972,10 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>76</v>
@@ -2943,16 +2984,18 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3000,13 +3043,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -3015,24 +3058,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3043,10 +3086,10 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
@@ -3055,24 +3098,26 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3092,11 +3137,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3114,13 +3161,13 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
@@ -3129,24 +3176,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3166,19 +3213,21 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3226,7 +3275,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3238,19 +3287,19 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -3262,36 +3311,34 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3328,37 +3375,37 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3369,10 +3416,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3383,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>88</v>
@@ -3395,20 +3442,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3456,13 +3499,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3471,10 +3514,10 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3485,10 +3528,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3499,7 +3542,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>88</v>
@@ -3511,19 +3554,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3548,13 +3591,11 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3572,13 +3613,13 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
@@ -3587,13 +3628,13 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -3601,10 +3642,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3615,7 +3656,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3624,16 +3665,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3660,13 +3701,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3684,28 +3725,28 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -3713,14 +3754,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3736,18 +3777,20 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3784,19 +3827,19 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3808,27 +3851,27 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3842,25 +3885,29 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3908,7 +3955,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3923,10 +3970,10 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3937,10 +3984,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3951,10 +3998,10 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>76</v>
@@ -3963,17 +4010,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4022,13 +4071,13 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
@@ -4037,10 +4086,10 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4051,10 +4100,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4074,20 +4123,18 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4112,13 +4159,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4136,7 +4183,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4151,13 +4198,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -4165,10 +4212,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4179,7 +4226,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4188,16 +4235,16 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4248,43 +4295,43 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4303,17 +4350,15 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4362,7 +4407,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4374,13 +4419,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4391,14 +4436,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4411,25 +4456,23 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4478,7 +4521,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4490,13 +4533,13 @@
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>130</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4507,10 +4550,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4533,15 +4576,17 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4566,31 +4611,31 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4608,7 +4653,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4619,10 +4664,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4645,13 +4690,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4702,7 +4747,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4714,13 +4759,13 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4731,21 +4776,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4757,16 +4802,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4816,25 +4861,25 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4845,44 +4890,46 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4930,25 +4977,25 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4959,10 +5006,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4985,13 +5032,13 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5018,13 +5065,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5042,7 +5089,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5060,7 +5107,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5071,10 +5118,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5097,13 +5144,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5154,7 +5201,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5166,13 +5213,13 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5183,21 +5230,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5209,16 +5256,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5268,25 +5315,25 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5297,46 +5344,44 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5384,25 +5429,25 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5413,10 +5458,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5424,10 +5469,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5439,13 +5484,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5496,13 +5541,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -5514,7 +5559,7 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5525,10 +5570,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5551,13 +5596,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>288</v>
+        <v>125</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>289</v>
+        <v>126</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5608,7 +5653,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5620,13 +5665,13 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5637,21 +5682,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5663,15 +5708,17 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5720,25 +5767,25 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5749,14 +5796,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5769,23 +5816,25 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5834,7 +5883,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5846,23 +5895,473 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN40">
+  <autoFilter ref="A1:AN44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5872,7 +6371,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/core/StructureDefinition-medcom-core-practitionerrole.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -767,7 +767,7 @@
     <t>Specific specialty associated with the agency.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -782,7 +782,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -804,7 +804,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService)
+    <t xml:space="preserve">Reference(HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -978,7 +978,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>

--- a/ig/core/StructureDefinition-medcom-core-practitionerrole.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="352">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole</t>
+    <t>http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner-role</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}medcom-core-practitionerrole-code-xor-text:There shall exist a practitioner role code.coding or text if code is present. {code.exists() implies (code.coding.where(system.exists() and code.exists()).exists() xor code.text.exists())}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -731,6 +731,123 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
+    <t>PractitionerRole.code.coding.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
     <t>PractitionerRole.code.text</t>
   </si>
   <si>
@@ -782,7 +899,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-location)
 </t>
   </si>
   <si>
@@ -1308,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1605,7 +1722,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>87</v>
@@ -2059,7 +2176,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>87</v>
@@ -3427,7 +3544,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>87</v>
@@ -4001,29 +4118,25 @@
         <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4071,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4083,13 +4196,13 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4100,14 +4213,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4123,18 +4236,20 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4159,31 +4274,31 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4195,16 +4310,16 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -4212,10 +4327,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4223,13 +4338,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4238,16 +4353,20 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4295,13 +4414,13 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -4310,24 +4429,24 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4338,7 +4457,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4347,18 +4466,20 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4407,13 +4528,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4422,10 +4543,10 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4436,10 +4557,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4447,13 +4568,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -4462,17 +4583,17 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4521,13 +4642,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4536,10 +4657,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4550,10 +4671,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4564,7 +4685,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4573,21 +4694,21 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4635,13 +4756,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -4650,10 +4771,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4664,10 +4785,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4687,19 +4808,23 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4747,7 +4872,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4759,13 +4884,13 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4776,44 +4901,46 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4861,25 +4988,25 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4890,14 +5017,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4910,26 +5037,22 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4953,13 +5076,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -4989,16 +5112,16 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5006,10 +5129,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5029,16 +5152,16 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5065,13 +5188,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5089,7 +5212,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5107,21 +5230,21 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5132,7 +5255,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5144,13 +5267,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5201,13 +5324,13 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5216,10 +5339,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5230,10 +5353,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5244,7 +5367,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5253,21 +5376,21 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5315,13 +5438,13 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
@@ -5333,7 +5456,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5344,10 +5467,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5358,7 +5481,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5370,16 +5493,16 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5429,13 +5552,13 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -5447,7 +5570,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5458,10 +5581,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5472,7 +5595,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5484,13 +5607,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5541,25 +5664,25 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5570,21 +5693,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5596,15 +5719,17 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5653,19 +5778,19 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5682,14 +5807,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5702,24 +5827,26 @@
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5767,7 +5894,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>138</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5785,7 +5912,7 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5796,14 +5923,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5816,26 +5943,22 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5859,13 +5982,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -5883,7 +6006,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5895,13 +6018,13 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -5912,10 +6035,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5923,7 +6046,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>87</v>
@@ -5938,13 +6061,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5995,10 +6118,10 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>87</v>
@@ -6013,7 +6136,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>128</v>
+        <v>308</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6024,10 +6147,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6050,15 +6173,17 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6107,7 +6232,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6125,7 +6250,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6136,10 +6261,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6162,15 +6287,17 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>124</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6219,7 +6346,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6237,7 +6364,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6248,10 +6375,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6274,18 +6401,16 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6333,7 +6458,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6351,17 +6476,809 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN44">
+  <autoFilter ref="A1:AN51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6371,7 +7288,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
